--- a/crmCLass.xlsx
+++ b/crmCLass.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="133">
   <si>
     <t>https://signup.microsoft.com/get-started/signup?OfferId=82272b45-36d5-4226-8cee-576b70f7aaac&amp;ali=1&amp;products=82272b45-36d5-4226-8cee-576b70f7aaac&amp;ru=https%3A%2F%2Fadmin.powerplatform.microsoft.com%2Fenvironments%3Fopen%3Dnew%26type%3DTrial%26template%3DD365_SalesPremiumTrial</t>
   </si>
@@ -777,6 +777,12 @@
   </si>
   <si>
     <t xml:space="preserve">RELATION IS REQUIRED TO quick view [event from expense] </t>
+  </si>
+  <si>
+    <t>DATATYPE -- Choice -&gt; yes/no -- slider bar</t>
+  </si>
+  <si>
+    <t>expense category</t>
   </si>
 </sst>
 </file>
@@ -1220,15 +1226,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>7257</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>168728</xdr:rowOff>
+      <xdr:colOff>70757</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>473164</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>160747</xdr:rowOff>
+      <xdr:colOff>536664</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>46447</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1245,7 +1251,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10802257" y="16069128"/>
+          <a:off x="11170557" y="16138978"/>
           <a:ext cx="10562407" cy="3541669"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1825,6 +1831,120 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2863850</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>120903</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>120934</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13963650" y="10674350"/>
+          <a:ext cx="4915153" cy="5531134"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>153555</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>184149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19011900" y="10706100"/>
+          <a:ext cx="7214755" cy="1092199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>127042</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114419</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20497800" y="11811000"/>
+          <a:ext cx="825542" cy="2311519"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2115,10 +2235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D240"/>
+  <dimension ref="A1:O240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C241" sqref="C241"/>
+    <sheetView tabSelected="1" topLeftCell="K44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S60" sqref="S60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2291,7 +2411,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>2.1</v>
       </c>
@@ -2299,10 +2419,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B35" s="9" t="s">
         <v>31</v>
       </c>
@@ -2310,7 +2430,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C36" s="15" t="s">
         <v>45</v>
       </c>
@@ -2318,12 +2438,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C37" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B39" s="9" t="s">
         <v>43</v>
       </c>
@@ -2334,7 +2454,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C40" s="3" t="s">
         <v>38</v>
       </c>
@@ -2342,12 +2462,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C41" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="B42" s="9" t="s">
         <v>44</v>
       </c>
@@ -2358,12 +2478,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="C43" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>2.2000000000000002</v>
       </c>
@@ -2377,7 +2497,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="8">
         <v>2.2999999999999998</v>
       </c>
@@ -2390,9 +2510,12 @@
       <c r="D48" s="25" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="O48" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B50" s="18" t="s">
         <v>51</v>
       </c>
@@ -2400,31 +2523,31 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B51" s="20"/>
       <c r="C51" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B52" s="20"/>
       <c r="C52" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B53" s="20"/>
       <c r="C53" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B54" s="22"/>
       <c r="C54" s="23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B56" s="9" t="s">
         <v>57</v>
       </c>
@@ -2432,15 +2555,18 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C57" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="N57" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B59" s="9" t="s">
         <v>61</v>
       </c>
@@ -2451,22 +2577,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C60" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C61" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C62" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B64" s="9" t="s">
         <v>67</v>
       </c>
